--- a/results/apriori/apriori_graph-ext_sum_tfs.xlsx
+++ b/results/apriori/apriori_graph-ext_sum_tfs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikitas Kaloger\PycharmProjects\Gsb_model\results\apriori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753823E5-FDD5-473B-9B4B-DD7CDDA9DD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5212BC4-9D03-4EDE-8448-E3C81B4589CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apriori_graph-ext_sum_tfs" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,36 @@
     <sheet name="apriori_graph-ext_sum_tfs2" sheetId="3" r:id="rId3"/>
     <sheet name="apriori_graph-ext_sum_tfs3" sheetId="4" r:id="rId4"/>
     <sheet name="apriori_graph-ext_sum_tfs4" sheetId="5" r:id="rId5"/>
+    <sheet name="apriori_graph-ext_sum_tfs5" sheetId="6" r:id="rId6"/>
+    <sheet name="apriori_graph-ext_sum_tfs6" sheetId="7" r:id="rId7"/>
+    <sheet name="apriori_graph-ext_sum_tfs7" sheetId="8" r:id="rId8"/>
+    <sheet name="apriori_graph-ext_sum_tfs8" sheetId="9" r:id="rId9"/>
+    <sheet name="apriori_graph-ext_sum_tfs9" sheetId="10" r:id="rId10"/>
+    <sheet name="apriori_graph-ext_sum_tfs10" sheetId="11" r:id="rId11"/>
+    <sheet name="apriori_graph-ext_sum_tfs11" sheetId="12" r:id="rId12"/>
+    <sheet name="apriori_graph-ext_sum_tfs12" sheetId="13" r:id="rId13"/>
+    <sheet name="apriori_graph-ext_sum_tfs13" sheetId="14" r:id="rId14"/>
+    <sheet name="apriori_graph-ext_sum_tfs14" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
   <si>
     <t>A_pre</t>
   </si>
@@ -32,20 +55,64 @@
     <t>A_rec</t>
   </si>
   <si>
-    <t>[(1, 496.122282743454), (5, 273.4731352329254), (9, 183.95295429229736), (13, 160.70569157600403), (17, 139.05608916282654)]</t>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>183.95295429229736</t>
+  </si>
+  <si>
+    <t>191.92489910125732</t>
+  </si>
+  <si>
+    <t>156.4478199481964</t>
+  </si>
+  <si>
+    <t>160.70569157600403</t>
+  </si>
+  <si>
+    <t>138.23738813400269</t>
+  </si>
+  <si>
+    <t>124.71121454238892</t>
+  </si>
+  <si>
+    <t>139.05608916282654</t>
+  </si>
+  <si>
+    <t>117.62520170211792</t>
+  </si>
+  <si>
+    <t>112.02114844322205</t>
+  </si>
+  <si>
+    <t>109.65381169319153</t>
+  </si>
+  <si>
+    <t>104.91115236282349</t>
+  </si>
+  <si>
+    <t>100.61217761039734</t>
+  </si>
+  <si>
+    <t>98.965336561203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -61,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -84,15 +151,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,11 +255,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$B$20</c:f>
+              <c:f>'apriori_graph-ext_sum_tfs'!$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>mean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -184,124 +274,112 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$21:$A$35</c:f>
+              <c:f>'apriori_graph-ext_sum_tfs'!$S$6:$AG$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$B$21:$B$35</c:f>
+              <c:f>'apriori_graph-ext_sum_tfs'!$S$7:$AG$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.51470588235294124</c:v>
+                  <c:v>3.6356364813236425E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>3.7303132448268619E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51162790697674421</c:v>
+                  <c:v>3.7312306814344255E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>3.7364278232994964E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50381679389312972</c:v>
+                  <c:v>3.7974357565560689E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52083333333333337</c:v>
+                  <c:v>3.7896845960517886E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5178571428571429</c:v>
+                  <c:v>3.7933742317911176E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52272727272727271</c:v>
+                  <c:v>3.7374150562279281E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>3.7450259663958492E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>3.6386663446176921E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.52272727272727271</c:v>
+                  <c:v>3.8193891567830977E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>3.8473918979017037E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.52083333333333337</c:v>
+                  <c:v>3.8450266826068537E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50909090909090893</c:v>
+                  <c:v>3.8154487570089865E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.50480769230769229</c:v>
+                  <c:v>3.8570573755874492E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,619 +387,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F065-4567-8409-42E721F423AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$21:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$C$21:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.51470588235294124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51162790697674421</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50381679389312972</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52083333333333337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5178571428571429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.52083333333333337</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50909090909090893</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.50480769230769229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F065-4567-8409-42E721F423AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$D$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$21:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$D$21:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.51470588235294124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51162790697674421</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50381679389312972</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52083333333333337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5178571428571429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.52083333333333337</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50909090909090893</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.50480769230769229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F065-4567-8409-42E721F423AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$E$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$21:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$E$21:$E$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.51470588235294124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51162790697674421</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50381679389312972</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52083333333333337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5178571428571429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.52083333333333337</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50909090909090893</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.50480769230769229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F065-4567-8409-42E721F423AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$F$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$21:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$F$21:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.51470588235294124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51162790697674421</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50381679389312972</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.52083333333333337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5178571428571429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.52083333333333337</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50909090909090893</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.50480769230769229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F065-4567-8409-42E721F423AA}"/>
+              <c16:uniqueId val="{00000000-8369-480B-A2BA-5E3AEAA263B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -933,13 +399,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353885104"/>
-        <c:axId val="353889680"/>
+        <c:axId val="1145321392"/>
+        <c:axId val="1145322224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353885104"/>
+        <c:axId val="1145321392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353889680"/>
+        <c:crossAx val="1145322224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -990,7 +455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353889680"/>
+        <c:axId val="1145322224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353885104"/>
+        <c:crossAx val="1145321392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1053,37 +518,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1135,10 +569,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="8"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1179,153 +613,115 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Time in Secs</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:tint val="54000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:tint val="54000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:tint val="54000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$4:$A$18</c:f>
+              <c:f>'apriori_graph-ext_sum_tfs'!$D$38:$P$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$B$4:$B$18</c:f>
+              <c:f>'apriori_graph-ext_sum_tfs'!$D$39:$P$39</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3.5298073151467421E-2</c:v>
+                  <c:v>183.95295429229699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8521798335886876E-3</c:v>
+                  <c:v>191.92489910125701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.423744848002939E-2</c:v>
+                  <c:v>156.44781994819601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3707140993325479E-3</c:v>
+                  <c:v>160.705691576004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1223959515796005</c:v>
+                  <c:v>138.237388134002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2587231439340682E-2</c:v>
+                  <c:v>139.056089162826</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1959889335860149E-2</c:v>
+                  <c:v>124.71121454238801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1130330363436169E-2</c:v>
+                  <c:v>117.625201702117</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7938955082778091E-3</c:v>
+                  <c:v>112.021148443222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.808477263792229E-2</c:v>
+                  <c:v>109.653811693191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5190541788459602E-2</c:v>
+                  <c:v>104.911152362823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9428704020956713E-3</c:v>
+                  <c:v>100.612177610397</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5445282015224529E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.421232466824976E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.4843966895661121E-2</c:v>
+                  <c:v>98.965336561203003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,637 +729,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7797-4199-AD89-EE57D80C47BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:tint val="77000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$4:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$C$4:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>3.5298073151467421E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.886048288509773E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3644982436347603E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3546604660149149E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14083915177696721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2217526846439187E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.18438210832172E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1574863612645111E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7938955082778091E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8125945233442711E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.130788370971087E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.9471962603459489E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5445282015224529E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.4299206707809078E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.4968449627609938E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7797-4199-AD89-EE57D80C47BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$4:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$D$4:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>3.5298073151467421E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0955904435581196E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.423744848002939E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3546604660149149E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14083915177696721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2102906059208299E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2127267795235338E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1015034330160949E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7938955082778091E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.808477263792229E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1204475545531669E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.9428704020956713E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5445282015224529E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.4299206707809078E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.4843966895661121E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7797-4199-AD89-EE57D80C47BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="76000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$4:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$E$4:$E$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>3.5162564478402637E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2799006208309992E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3517864827273288E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.727275805062368E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14083915177696721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0982356782822298E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2022840059228659E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1077474164714231E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7938955082778091E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.817103902853651E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1542799866461029E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.9428704020956713E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5445282015224529E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.4233025527280709E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.4714348544590326E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7797-4199-AD89-EE57D80C47BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="53000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="53000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="53000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$A$4:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'apriori_graph-ext_sum_tfs'!$F$4:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>3.5233850391884702E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0955904435581196E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.423744848002939E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.727275805062368E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14083915177696721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2809615401045205E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2375283668251211E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1183856051777701E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7938955082778091E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8195235699074639E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1542799866461029E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.9999571719675663E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5627066879841549E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.4233025527280709E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.4859842287898141E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7797-4199-AD89-EE57D80C47BE}"/>
+              <c16:uniqueId val="{00000001-02D0-46A3-AC6E-69A8004C57D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1975,13 +741,148 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="730536832"/>
-        <c:axId val="730526432"/>
+        <c:axId val="504291152"/>
+        <c:axId val="504290320"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'apriori_graph-ext_sum_tfs'!$D$38:$P$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'apriori_graph-ext_sum_tfs'!$D$38:$P$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-02D0-46A3-AC6E-69A8004C57D2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="730536832"/>
+        <c:axId val="504291152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="730526432"/>
+        <c:crossAx val="504290320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="730526432"/>
+        <c:axId val="504290320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +953,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2083,7 +984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="730536832"/>
+        <c:crossAx val="504291152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2211,13 +1112,47 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2325,6 +1260,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2335,6 +1275,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2366,6 +1311,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2720,7 +1668,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2828,6 +1776,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2838,6 +1791,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2869,6 +1827,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3226,23 +2187,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F1C701-4246-16F5-DAD1-19784D3AB02C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7452DB21-7D73-3F2B-461A-8FDBB78DFA02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,23 +2223,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1451D4E5-2639-C636-235A-15AA1917002D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44392F1-719F-A148-8C51-B1358056E588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3584,15 +2545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3602,14 +2563,44 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -3620,13 +2611,43 @@
         <v>9</v>
       </c>
       <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <v>26</v>
+      </c>
+      <c r="P3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -3640,13 +2661,43 @@
         <v>3.5298073151467421E-2</v>
       </c>
       <c r="E4">
+        <v>3.5076007537183727E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.5228764006025377E-2</v>
+      </c>
+      <c r="G4">
         <v>3.5162564478402637E-2</v>
       </c>
-      <c r="F4">
+      <c r="H4">
+        <v>3.5150964343241012E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.5047785495191691E-2</v>
+      </c>
+      <c r="J4">
         <v>3.5233850391884702E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>3.5271162688866278E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.8304124990455928E-2</v>
+      </c>
+      <c r="M4">
+        <v>3.818660428258449E-2</v>
+      </c>
+      <c r="N4">
+        <v>3.7693021265167173E-2</v>
+      </c>
+      <c r="O4">
+        <v>3.8139968292036038E-2</v>
+      </c>
+      <c r="P4">
+        <v>3.8139968292036038E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3663,10 +2714,40 @@
         <v>7.2799006208309992E-3</v>
       </c>
       <c r="F5">
+        <v>7.2799006208309992E-3</v>
+      </c>
+      <c r="G5">
+        <v>7.2799006208309992E-3</v>
+      </c>
+      <c r="H5">
+        <v>7.0384247201258892E-3</v>
+      </c>
+      <c r="I5">
+        <v>7.0384247201258892E-3</v>
+      </c>
+      <c r="J5">
         <v>7.0955904435581196E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>7.4461827600507203E-3</v>
+      </c>
+      <c r="L5">
+        <v>7.0955904435581196E-3</v>
+      </c>
+      <c r="M5">
+        <v>7.2430009326333649E-3</v>
+      </c>
+      <c r="N5">
+        <v>7.0955904435581196E-3</v>
+      </c>
+      <c r="O5">
+        <v>7.2799006208309992E-3</v>
+      </c>
+      <c r="P5">
+        <v>7.2430009326333649E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3680,16 +2761,88 @@
         <v>4.423744848002939E-2</v>
       </c>
       <c r="E6">
-        <v>4.3517864827273288E-2</v>
+        <v>4.4320356907671069E-2</v>
       </c>
       <c r="F6">
         <v>4.423744848002939E-2</v>
       </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>4.3517864827273288E-2</v>
+      </c>
+      <c r="H6">
+        <v>4.3644982436347603E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.3344060600354499E-2</v>
+      </c>
+      <c r="J6">
+        <v>4.423744848002939E-2</v>
+      </c>
+      <c r="K6">
+        <v>4.3517864827273288E-2</v>
+      </c>
+      <c r="L6">
+        <v>5.968169133401021E-2</v>
+      </c>
+      <c r="M6">
+        <v>6.4353892517839309E-2</v>
+      </c>
+      <c r="N6">
+        <v>6.1901086166264142E-2</v>
+      </c>
+      <c r="O6">
+        <v>5.6809595729356469E-2</v>
+      </c>
+      <c r="P6">
+        <v>6.4353892517839309E-2</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>9</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>12</v>
+      </c>
+      <c r="X6">
+        <v>13</v>
+      </c>
+      <c r="Y6">
+        <v>14</v>
+      </c>
+      <c r="Z6">
+        <v>16</v>
+      </c>
+      <c r="AA6">
+        <v>17</v>
+      </c>
+      <c r="AB6">
+        <v>18</v>
+      </c>
+      <c r="AC6">
+        <v>20</v>
+      </c>
+      <c r="AD6">
+        <v>22</v>
+      </c>
+      <c r="AE6">
+        <v>24</v>
+      </c>
+      <c r="AF6">
+        <v>26</v>
+      </c>
+      <c r="AG6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3703,13 +2856,91 @@
         <v>9.3546604660149149E-3</v>
       </c>
       <c r="E7">
+        <v>9.3546604660149149E-3</v>
+      </c>
+      <c r="F7">
+        <v>9.3455872085340154E-3</v>
+      </c>
+      <c r="G7">
         <v>9.727275805062368E-3</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>9.727275805062368E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>9.727275805062368E-3</v>
+      </c>
+      <c r="J7">
+        <v>9.727275805062368E-3</v>
+      </c>
+      <c r="K7">
+        <v>9.8793245920979038E-3</v>
+      </c>
+      <c r="L7">
+        <v>1.093536141475995E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.07716742132554E-2</v>
+      </c>
+      <c r="N7">
+        <v>1.07716742132554E-2</v>
+      </c>
+      <c r="O7">
+        <v>1.07716742132554E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.086743606720489E-2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>3.6356364813236425E-2</v>
+      </c>
+      <c r="T7">
+        <v>3.7303132448268619E-2</v>
+      </c>
+      <c r="U7">
+        <v>3.7312306814344255E-2</v>
+      </c>
+      <c r="V7">
+        <v>3.7364278232994964E-2</v>
+      </c>
+      <c r="W7">
+        <v>3.7974357565560689E-2</v>
+      </c>
+      <c r="X7">
+        <v>3.7896845960517886E-2</v>
+      </c>
+      <c r="Y7">
+        <v>3.7933742317911176E-2</v>
+      </c>
+      <c r="Z7">
+        <v>3.7374150562279281E-2</v>
+      </c>
+      <c r="AA7">
+        <v>3.7450259663958492E-2</v>
+      </c>
+      <c r="AB7">
+        <v>3.6386663446176921E-2</v>
+      </c>
+      <c r="AC7">
+        <v>3.8193891567830977E-2</v>
+      </c>
+      <c r="AD7">
+        <v>3.8473918979017037E-2</v>
+      </c>
+      <c r="AE7">
+        <v>3.8450266826068537E-2</v>
+      </c>
+      <c r="AF7">
+        <v>3.8154487570089865E-2</v>
+      </c>
+      <c r="AG7">
+        <v>3.8570573755874492E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3728,8 +2959,38 @@
       <c r="F8">
         <v>0.14083915177696721</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0.14083915177696721</v>
+      </c>
+      <c r="H8">
+        <v>0.14083915177696721</v>
+      </c>
+      <c r="I8">
+        <v>0.14083915177696721</v>
+      </c>
+      <c r="J8">
+        <v>0.14083915177696721</v>
+      </c>
+      <c r="K8">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="L8">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="M8">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="N8">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="O8">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="P8">
+        <v>0.12878126503359069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3743,13 +3004,43 @@
         <v>7.2102906059208299E-2</v>
       </c>
       <c r="E9">
+        <v>7.2270671319955654E-2</v>
+      </c>
+      <c r="F9">
+        <v>8.0892364978183265E-2</v>
+      </c>
+      <c r="G9">
         <v>8.0982356782822298E-2</v>
       </c>
-      <c r="F9">
+      <c r="H9">
+        <v>8.0956877777522654E-2</v>
+      </c>
+      <c r="I9">
+        <v>7.2815915213996121E-2</v>
+      </c>
+      <c r="J9">
         <v>7.2809615401045205E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>7.2874319115568076E-2</v>
+      </c>
+      <c r="L9">
+        <v>7.0164017524442179E-2</v>
+      </c>
+      <c r="M9">
+        <v>7.0095197455622094E-2</v>
+      </c>
+      <c r="N9">
+        <v>7.0124334984759631E-2</v>
+      </c>
+      <c r="O9">
+        <v>7.0072781395996889E-2</v>
+      </c>
+      <c r="P9">
+        <v>7.0064888113180568E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3763,13 +3054,43 @@
         <v>2.2127267795235338E-2</v>
       </c>
       <c r="E10">
+        <v>2.2127267795235338E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.2694161219271619E-2</v>
+      </c>
+      <c r="G10">
         <v>2.2022840059228659E-2</v>
       </c>
-      <c r="F10">
+      <c r="H10">
+        <v>2.2694161219271619E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.2694161219271619E-2</v>
+      </c>
+      <c r="J10">
         <v>2.2375283668251211E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>2.2375283668251211E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.18438210832172E-2</v>
+      </c>
+      <c r="M10">
+        <v>2.1766517434484978E-2</v>
+      </c>
+      <c r="N10">
+        <v>2.2694161219271619E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.2022840059228659E-2</v>
+      </c>
+      <c r="P10">
+        <v>2.1928855096822641E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3783,13 +3104,43 @@
         <v>2.1015034330160949E-2</v>
       </c>
       <c r="E11">
-        <v>2.1077474164714231E-2</v>
+        <v>2.1183856051777701E-2</v>
       </c>
       <c r="F11">
         <v>2.1183856051777701E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>2.1077474164714231E-2</v>
+      </c>
+      <c r="H11">
+        <v>2.1085125586348369E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.1071831142311429E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.1183856051777701E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.1183856051777701E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.2606186942971229E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.2510828354191589E-2</v>
+      </c>
+      <c r="N11">
+        <v>2.2275822252058649E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.2510828354191589E-2</v>
+      </c>
+      <c r="P11">
+        <v>2.249261919876374E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3808,8 +3159,38 @@
       <c r="F12">
         <v>7.7938955082778091E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="H12">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="I12">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="J12">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="K12">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="L12">
+        <v>7.9247447207191259E-3</v>
+      </c>
+      <c r="M12">
+        <v>7.9247447207191259E-3</v>
+      </c>
+      <c r="N12">
+        <v>7.9247447207191259E-3</v>
+      </c>
+      <c r="O12">
+        <v>8.0090489817538323E-3</v>
+      </c>
+      <c r="P12">
+        <v>8.0090489817538323E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3823,13 +3204,43 @@
         <v>1.808477263792229E-2</v>
       </c>
       <c r="E13">
+        <v>1.8125945233442711E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.8125945233442711E-2</v>
+      </c>
+      <c r="G13">
         <v>1.817103902853651E-2</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.8195235699074639E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1.7950580474744619E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.8195235699074639E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.8104901462398942E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.9208524436172929E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.901562320160503E-2</v>
+      </c>
+      <c r="N13">
+        <v>2.1132636406726621E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.1132636406726621E-2</v>
+      </c>
+      <c r="P13">
+        <v>1.9853396640644741E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3843,13 +3254,43 @@
         <v>2.1204475545531669E-2</v>
       </c>
       <c r="E14">
+        <v>2.1599314498074479E-2</v>
+      </c>
+      <c r="F14">
+        <v>2.1599314498074479E-2</v>
+      </c>
+      <c r="G14">
         <v>2.1542799866461029E-2</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>2.1542799866461029E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>2.1542799866461029E-2</v>
+      </c>
+      <c r="J14">
+        <v>2.1542799866461029E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.2004750095213001E-2</v>
+      </c>
+      <c r="L14">
+        <v>2.3928315947580658E-2</v>
+      </c>
+      <c r="M14">
+        <v>2.3928315947580658E-2</v>
+      </c>
+      <c r="N14">
+        <v>2.3928315947580658E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.3928315947580658E-2</v>
+      </c>
+      <c r="P14">
+        <v>2.3928315947580658E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3863,13 +3304,43 @@
         <v>5.9428704020956713E-3</v>
       </c>
       <c r="E15">
+        <v>5.9471962603459489E-3</v>
+      </c>
+      <c r="F15">
+        <v>5.9493846356960889E-3</v>
+      </c>
+      <c r="G15">
         <v>5.9428704020956713E-3</v>
       </c>
-      <c r="F15">
+      <c r="H15">
+        <v>5.9428704020956713E-3</v>
+      </c>
+      <c r="I15">
         <v>5.9999571719675663E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>5.9999571719675663E-3</v>
+      </c>
+      <c r="K15">
+        <v>6.0022520658287257E-3</v>
+      </c>
+      <c r="L15">
+        <v>6.1518395855740537E-3</v>
+      </c>
+      <c r="M15">
+        <v>6.1492194112800587E-3</v>
+      </c>
+      <c r="N15">
+        <v>6.2614347591305368E-3</v>
+      </c>
+      <c r="O15">
+        <v>6.2675587391051221E-3</v>
+      </c>
+      <c r="P15">
+        <v>6.2584149066201326E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3886,10 +3357,40 @@
         <v>1.5445282015224529E-2</v>
       </c>
       <c r="F16">
+        <v>1.5445282015224529E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.5445282015224529E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.5445282015224529E-2</v>
+      </c>
+      <c r="I16">
         <v>1.5627066879841549E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1.5627066879841549E-2</v>
+      </c>
+      <c r="K16">
+        <v>1.5627066879841549E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.5817962954134429E-2</v>
+      </c>
+      <c r="M16">
+        <v>1.5817962954134429E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.5817962954134429E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.607356638371258E-2</v>
+      </c>
+      <c r="P16">
+        <v>1.607356638371258E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3903,13 +3404,43 @@
         <v>5.4299206707809078E-2</v>
       </c>
       <c r="E17">
+        <v>5.4256700608261287E-2</v>
+      </c>
+      <c r="F17">
+        <v>5.4285958706484908E-2</v>
+      </c>
+      <c r="G17">
         <v>5.4233025527280709E-2</v>
       </c>
-      <c r="F17">
+      <c r="H17">
+        <v>5.4157952500587213E-2</v>
+      </c>
+      <c r="I17">
+        <v>5.4220185260203148E-2</v>
+      </c>
+      <c r="J17">
         <v>5.4233025527280709E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>5.4273118439407353E-2</v>
+      </c>
+      <c r="L17">
+        <v>6.1490219794968333E-2</v>
+      </c>
+      <c r="M17">
+        <v>6.1589230914424538E-2</v>
+      </c>
+      <c r="N17">
+        <v>6.1564557400814172E-2</v>
+      </c>
+      <c r="O17">
+        <v>6.154262608267267E-2</v>
+      </c>
+      <c r="P17">
+        <v>6.1589230914424538E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3923,349 +3454,2224 @@
         <v>8.4843966895661121E-2</v>
       </c>
       <c r="E18">
+        <v>8.4843966895661121E-2</v>
+      </c>
+      <c r="F18">
         <v>8.4714348544590326E-2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
+        <v>8.4714348544590326E-2</v>
+      </c>
+      <c r="H18">
+        <v>8.4791135112060115E-2</v>
+      </c>
+      <c r="I18">
+        <v>8.4899167299412659E-2</v>
+      </c>
+      <c r="J18">
         <v>8.4859842287898141E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="K18">
+        <v>8.0664708504210578E-2</v>
+      </c>
+      <c r="L18">
+        <v>7.8974707311309691E-2</v>
+      </c>
+      <c r="M18">
+        <v>7.8974707311309691E-2</v>
+      </c>
+      <c r="N18">
+        <v>7.878739462399699E-2</v>
+      </c>
+      <c r="O18">
+        <v>7.8974707311309691E-2</v>
+      </c>
+      <c r="P18">
+        <v>7.8974707311309691E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(B4:B18)</f>
+        <v>3.6356364813236425E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:P19" si="0">AVERAGE(C4:C18)</f>
+        <v>3.7303132448268619E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3.7312306814344255E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.7364278232994964E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3.7974357565560689E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3.7896845960517886E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3.7933742317911176E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>3.7374150562279281E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>3.7450259663958492E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>3.6386663446176921E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>3.8193891567830977E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>3.8473918979017037E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>3.8450266826068537E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>3.8154487570089865E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>3.8570573755874492E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="G21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="H21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>9</v>
       </c>
-      <c r="E20">
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
         <v>13</v>
       </c>
-      <c r="F20">
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>24</v>
+      </c>
+      <c r="O22">
+        <v>26</v>
+      </c>
+      <c r="P22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>0</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>0.51470588235294124</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>0.51470588235294124</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>0.51470588235294124</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>0.51470588235294124</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>0.51470588235294124</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="G23">
+        <v>0.51470588235294124</v>
+      </c>
+      <c r="H23">
+        <v>0.51470588235294124</v>
+      </c>
+      <c r="I23">
+        <v>0.51470588235294124</v>
+      </c>
+      <c r="J23">
+        <v>0.51470588235294124</v>
+      </c>
+      <c r="K23">
+        <v>0.51470588235294124</v>
+      </c>
+      <c r="L23">
+        <v>0.51470588235294124</v>
+      </c>
+      <c r="M23">
+        <v>0.51470588235294124</v>
+      </c>
+      <c r="N23">
+        <v>0.51470588235294124</v>
+      </c>
+      <c r="O23">
+        <v>0.51470588235294124</v>
+      </c>
+      <c r="P23">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>0.5714285714285714</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>0.5714285714285714</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="G24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="N24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P24">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>0.51162790697674421</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>0.51162790697674421</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>0.51162790697674421</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>0.51162790697674421</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>0.51162790697674421</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="G25">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="H25">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="I25">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="J25">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="K25">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="L25">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="M25">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="N25">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="O25">
+        <v>0.51162790697674421</v>
+      </c>
+      <c r="P25">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>0.55555555555555558</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>0.55555555555555558</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="G26">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H26">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I26">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J26">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K26">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L26">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M26">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N26">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="O26">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="P26">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>4</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>0.50381679389312972</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>0.50381679389312972</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>0.50381679389312972</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>0.50381679389312972</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>0.50381679389312972</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="G27">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="H27">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="I27">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="J27">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="K27">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="L27">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="M27">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="N27">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="O27">
+        <v>0.50381679389312972</v>
+      </c>
+      <c r="P27">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>5</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="G28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="O28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P28">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>6</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>0.5178571428571429</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>0.5178571428571429</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>0.5178571428571429</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>0.5178571428571429</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>0.5178571428571429</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="G29">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="H29">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="I29">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="J29">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="K29">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="L29">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="M29">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="N29">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="O29">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="P29">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>7</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>0.52272727272727271</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>0.52272727272727271</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>0.52272727272727271</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>0.52272727272727271</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>0.52272727272727271</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="G30">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="H30">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="I30">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="J30">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="K30">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="L30">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="M30">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="N30">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="O30">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="P30">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>8</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="G31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P31">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>9</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>0.5</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>0.5</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>0.5</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>0.5</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="G32">
+        <v>0.5</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.5</v>
+      </c>
+      <c r="N32">
+        <v>0.5</v>
+      </c>
+      <c r="O32">
+        <v>0.5</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>10</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>0.52272727272727271</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>0.52272727272727271</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>0.52272727272727271</v>
       </c>
-      <c r="E31">
+      <c r="E33">
         <v>0.52272727272727271</v>
       </c>
-      <c r="F31">
+      <c r="F33">
         <v>0.52272727272727271</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="G33">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="H33">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="I33">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="J33">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="K33">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="L33">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="M33">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="N33">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="O33">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="P33">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>11</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>0.5714285714285714</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>0.5714285714285714</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>0.5714285714285714</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="G34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="N34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O34">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P34">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>12</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>0.52083333333333337</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="G35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="O35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P35">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>13</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>0.50909090909090893</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>0.50909090909090893</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>0.50909090909090893</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>0.50909090909090893</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>0.50909090909090893</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="G36">
+        <v>0.50909090909090893</v>
+      </c>
+      <c r="H36">
+        <v>0.50909090909090893</v>
+      </c>
+      <c r="I36">
+        <v>0.50909090909090893</v>
+      </c>
+      <c r="J36">
+        <v>0.50909090909090893</v>
+      </c>
+      <c r="K36">
+        <v>0.50909090909090893</v>
+      </c>
+      <c r="L36">
+        <v>0.50909090909090893</v>
+      </c>
+      <c r="M36">
+        <v>0.50909090909090893</v>
+      </c>
+      <c r="N36">
+        <v>0.50909090909090893</v>
+      </c>
+      <c r="O36">
+        <v>0.50909090909090893</v>
+      </c>
+      <c r="P36">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>14</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>0.50480769230769229</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>0.50480769230769229</v>
       </c>
-      <c r="D35">
+      <c r="D37">
         <v>0.50480769230769229</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>0.50480769230769229</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>0.50480769230769229</v>
+      </c>
+      <c r="G37">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="H37">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="I37">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="J37">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="K37">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="L37">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="M37">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="N37">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="O37">
+        <v>0.50480769230769229</v>
+      </c>
+      <c r="P37">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+      <c r="H38">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>17</v>
+      </c>
+      <c r="K38">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>24</v>
+      </c>
+      <c r="O38">
+        <v>26</v>
+      </c>
+      <c r="P38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D39" s="5">
+        <v>183.95295429229699</v>
+      </c>
+      <c r="E39" s="5">
+        <v>191.92489910125701</v>
+      </c>
+      <c r="F39" s="5">
+        <v>156.44781994819601</v>
+      </c>
+      <c r="G39" s="5">
+        <v>160.705691576004</v>
+      </c>
+      <c r="H39" s="5">
+        <v>138.237388134002</v>
+      </c>
+      <c r="I39" s="5">
+        <v>139.056089162826</v>
+      </c>
+      <c r="J39" s="5">
+        <v>124.71121454238801</v>
+      </c>
+      <c r="K39" s="5">
+        <v>117.625201702117</v>
+      </c>
+      <c r="L39" s="5">
+        <v>112.021148443222</v>
+      </c>
+      <c r="M39" s="5">
+        <v>109.653811693191</v>
+      </c>
+      <c r="N39" s="5">
+        <v>104.911152362823</v>
+      </c>
+      <c r="O39" s="5">
+        <v>100.612177610397</v>
+      </c>
+      <c r="P39" s="5">
+        <v>98.965336561203003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.5271162688866278E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.4461827600507203E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.3517864827273288E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.8793245920979038E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.2874319115568076E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.2375283668251211E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.1183856051777701E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.8104901462398942E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.2004750095213001E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.0022520658287257E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.5627066879841549E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5.4273118439407353E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8.0664708504210578E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.8304124990455928E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.0955904435581196E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.968169133401021E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.093536141475995E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.0164017524442179E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.18438210832172E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.2606186942971229E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.9247447207191259E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.9208524436172929E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.3928315947580658E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.1518395855740537E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.5817962954134429E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6.1490219794968333E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7.8974707311309691E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.818660428258449E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.2430009326333649E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.4353892517839309E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.07716742132554E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.0095197455622094E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.1766517434484978E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.2510828354191589E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.9247447207191259E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.901562320160503E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.3928315947580658E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.1492194112800587E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.5817962954134429E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6.1589230914424538E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7.8974707311309691E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.7693021265167173E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.0955904435581196E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.1901086166264142E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.07716742132554E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.0124334984759631E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.2694161219271619E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.2275822252058649E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.9247447207191259E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2.1132636406726621E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.3928315947580658E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.2614347591305368E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.5817962954134429E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6.1564557400814172E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7.878739462399699E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.8139968292036038E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.2799006208309992E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.6809595729356469E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.07716742132554E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.0072781395996889E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.2022840059228659E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.2510828354191589E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8.0090489817538323E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2.1132636406726621E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.3928315947580658E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.2675587391051221E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.607356638371258E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6.154262608267267E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7.8974707311309691E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.8139968292036038E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.2430009326333649E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.4353892517839309E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.086743606720489E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.12878126503359069</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.0064888113180568E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.1928855096822641E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.249261919876374E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8.0090489817538323E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.9853396640644741E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.3928315947580658E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6.2584149066201326E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.607356638371258E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6.1589230914424538E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7.8974707311309691E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5019,4 +6425,756 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.5076007537183727E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.2799006208309992E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.4320356907671069E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.3546604660149149E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.14083915177696721</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.2270671319955654E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.2127267795235338E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.1183856051777701E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.8125945233442711E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.1599314498074479E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.9471962603459489E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.5445282015224529E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5.4256700608261287E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8.4843966895661121E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.5228764006025377E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.2799006208309992E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.423744848002939E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.3455872085340154E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.14083915177696721</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8.0892364978183265E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.2694161219271619E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.1183856051777701E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.8125945233442711E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.1599314498074479E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.9493846356960889E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.5445282015224529E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5.4285958706484908E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8.4714348544590326E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.5150964343241012E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.0384247201258892E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.3644982436347603E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.727275805062368E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.14083915177696721</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8.0956877777522654E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.2694161219271619E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.1085125586348369E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.8195235699074639E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.1542799866461029E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.9428704020956713E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.5445282015224529E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5.4157952500587213E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8.4791135112060115E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.5047785495191691E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.51470588235294124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.0384247201258892E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.3344060600354499E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.51162790697674421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.727275805062368E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.14083915177696721</v>
+      </c>
+      <c r="C6">
+        <v>0.50381679389312972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.2815915213996121E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.2694161219271619E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.5178571428571429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.1071831142311429E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.7938955082778091E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1.7950580474744619E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.1542799866461029E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.9999571719675663E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.5627066879841549E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5.4220185260203148E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.50909090909090893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8.4899167299412659E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.50480769230769229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>